--- a/TestDatas/TutorialsNinja.xlsx
+++ b/TestDatas/TutorialsNinja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934F5EBC-0B8B-48C9-894F-D171519912BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E63A0-ACA0-455D-BDFA-87714F05355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -380,12 +380,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -722,50 +718,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -773,484 +771,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="32.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="15" width="11.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="4" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13" style="2" customWidth="1"/>
+    <col min="13" max="15" width="11.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/TestDatas/TutorialsNinja.xlsx
+++ b/TestDatas/TutorialsNinja.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E63A0-ACA0-455D-BDFA-87714F05355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{19A1EE90-E006-4BA0-A3A8-1BF5CDA9EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J18"/>
 </workbook>
 </file>
 
@@ -718,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -771,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
